--- a/H1AR30/Released/BOM/H1AR30.xlsx
+++ b/H1AR30/Released/BOM/H1AR30.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
   <si>
     <t>Qty</t>
   </si>
@@ -184,19 +184,10 @@
     <t>https://octopart.com/mmz1608y300b-tdk-368280?r=sp&amp;s=cd9_2ZEqQ9q9UNBuQgHAiA</t>
   </si>
   <si>
-    <t>VLMS1300-GS08</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>Red 0603 130ｰ Clear 54 mcd 2 V Surface Mount ChipLED ;</t>
-  </si>
-  <si>
     <t>Vishay</t>
-  </si>
-  <si>
-    <t>https://octopart.com/vlms1300-gs08-vishay-21709201?r=sp&amp;s=_gcP4_q8T1SC6PJQPTQ9yA</t>
   </si>
   <si>
     <t>XTALL_CSTCE8M00G52</t>
@@ -252,21 +243,6 @@
     <t>D2</t>
   </si>
   <si>
-    <t>Cree, Inc.</t>
-  </si>
-  <si>
-    <t>CLVBA-FKA-CC1F1L1BB7R3R3</t>
-  </si>
-  <si>
-    <t>https://octopart.com/clvba-fka-cc1f1l1bb7r3r3-cree-20054005</t>
-  </si>
-  <si>
-    <t>CREE   CLVBA-FKA-CC1F1L1BB7R3R3   LED, HB, RGB, SMD, 130mW</t>
-  </si>
-  <si>
-    <t>Cree CLVBA-FKA-CC1F1L1BB7R3R3</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
@@ -475,6 +451,24 @@
   </si>
   <si>
     <t>https://octopart.com/47346-0001-molex-7164928?r=sp</t>
+  </si>
+  <si>
+    <t>VLMY1300-GS08</t>
+  </si>
+  <si>
+    <t>LED Uni-Color Yellow 588nm 2-Pin Chip 0603(1608Metric) T/R</t>
+  </si>
+  <si>
+    <t>https://octopart.com/vlmy1300-gs08-vishay-21709204?r=sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLMO1300-GS08 </t>
+  </si>
+  <si>
+    <t>LED Uni-Color Soft Orange 611nm 2-Pin Chip 0603(1608Metric) T/R</t>
+  </si>
+  <si>
+    <t>https://octopart.com/vlmo1300-gs08-vishay-21709200?r=sp#</t>
   </si>
 </sst>
 </file>
@@ -878,7 +872,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -914,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -928,10 +922,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -943,7 +937,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>24</v>
@@ -960,7 +954,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -983,10 +977,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
@@ -1009,22 +1003,22 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1035,7 +1029,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -1058,25 +1052,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1084,25 +1078,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1110,25 +1104,25 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,23 +1130,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1160,23 +1154,23 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1187,7 +1181,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>34</v>
@@ -1208,23 +1202,23 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1232,21 +1226,21 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1260,7 +1254,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
@@ -1283,22 +1277,22 @@
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1333,22 +1327,22 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1356,25 +1350,25 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G19" s="4">
         <v>0.01</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1382,25 +1376,25 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G20" s="4">
         <v>0.01</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1408,25 +1402,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G21" s="4">
         <v>0.05</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -1458,23 +1452,23 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,23 +1476,23 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,44 +1500,45 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3"/>
-    <hyperlink ref="H18" r:id="rId4"/>
-    <hyperlink ref="H19" r:id="rId5" display="https://octopart.com/crcw060368r0fkea-vishay-39811903"/>
-    <hyperlink ref="H20" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="H4" r:id="rId10"/>
-    <hyperlink ref="H5" r:id="rId11"/>
-    <hyperlink ref="H13" r:id="rId12"/>
-    <hyperlink ref="H21" r:id="rId13"/>
-    <hyperlink ref="H24" r:id="rId14"/>
-    <hyperlink ref="H15" r:id="rId15"/>
+    <hyperlink ref="H18" r:id="rId3"/>
+    <hyperlink ref="H19" r:id="rId4" display="https://octopart.com/crcw060368r0fkea-vishay-39811903"/>
+    <hyperlink ref="H20" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H4" r:id="rId9"/>
+    <hyperlink ref="H5" r:id="rId10"/>
+    <hyperlink ref="H13" r:id="rId11"/>
+    <hyperlink ref="H21" r:id="rId12"/>
+    <hyperlink ref="H24" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H10" r:id="rId15"/>
+    <hyperlink ref="H11" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>